--- a/rsei_results/RSEI_analysis.xlsx
+++ b/rsei_results/RSEI_analysis.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="指标统计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="等级分布" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="分类阈值" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,17 +468,25 @@
           <t>NDVI</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.4447535256824947</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8662888195461589</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4715307355383626</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.205302750821386</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.4448</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.8663</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -486,17 +495,25 @@
           <t>WET</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.7386469822500001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08769822837500005</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.04087513322509751</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03876873438611762</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.7386</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-0.0409</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -505,17 +522,25 @@
           <t>NDBSI</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.5130806469991254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3355896333224241</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.1342021320292816</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1180491723619431</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.5131</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.3356</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-0.1342</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -524,17 +549,25 @@
           <t>LST</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>25.95918433999998</v>
-      </c>
-      <c r="C5" t="n">
-        <v>55.97623598000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.75099341747516</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.369905340213768</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25.9592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>55.9762</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.7510</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.3699</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -543,17 +576,25 @@
           <t>RSEI</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3182341896048961</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1046681547088527</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -599,11 +640,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21572</v>
+        <v>21872</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>14.21%</t>
         </is>
       </c>
     </row>
@@ -614,11 +655,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95729</v>
+        <v>37976</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>62.17%</t>
+          <t>24.66%</t>
         </is>
       </c>
     </row>
@@ -629,11 +670,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36259</v>
+        <v>39818</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23.55%</t>
+          <t>25.86%</t>
         </is>
       </c>
     </row>
@@ -644,11 +685,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385</v>
+        <v>36202</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>23.51%</t>
         </is>
       </c>
     </row>
@@ -659,11 +700,140 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>18101</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>11.76%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>分类阈值</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>阈值</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jenks耗时(秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>差/较差</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jenks自然间断点</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>较差/中等</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jenks自然间断点</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中等/良好</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Jenks自然间断点</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>良好/优秀</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jenks自然间断点</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.05</t>
         </is>
       </c>
     </row>
